--- a/2024/Quân khí/7. SOQLKTSBB (S)/SOQLKT_SBB.xlsx
+++ b/2024/Quân khí/7. SOQLKTSBB (S)/SOQLKT_SBB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUNG-pct\Desktop\Thư mục mới\Thư mục mới\7. SOQLKTSBB (S)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2024\Quân khí\7. SOQLKTSBB (S)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2FEF35-E80D-4DB2-9EDB-B5BE11903127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8BB4F0-9C9D-4531-88DF-AC6961C6FCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="603" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="123">
   <si>
     <t>Quý</t>
   </si>
@@ -46262,6 +46262,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="J5:J8"/>
     <mergeCell ref="AE5:AE8"/>
     <mergeCell ref="P5:P8"/>
     <mergeCell ref="R5:R8"/>
@@ -46272,11 +46277,6 @@
     <mergeCell ref="W5:W8"/>
     <mergeCell ref="V5:V8"/>
     <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="J5:J8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -48414,18 +48414,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="AE5:AE8"/>
+    <mergeCell ref="S5:S8"/>
+    <mergeCell ref="U5:U8"/>
+    <mergeCell ref="V5:V8"/>
+    <mergeCell ref="T5:T8"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="P5:P8"/>
     <mergeCell ref="R5:R8"/>
     <mergeCell ref="O5:O8"/>
     <mergeCell ref="Q5:Q8"/>
     <mergeCell ref="K5:K8"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="AE5:AE8"/>
-    <mergeCell ref="S5:S8"/>
-    <mergeCell ref="U5:U8"/>
-    <mergeCell ref="V5:V8"/>
-    <mergeCell ref="T5:T8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -48438,8 +48438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:AD40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -49504,9 +49504,6 @@
       <c r="I29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AE29" s="10" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="31" spans="1:35" ht="21.75" customHeight="1">
       <c r="A31" s="32"/>
@@ -49788,8 +49785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE42" sqref="O1:AE42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -52558,6 +52555,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="U5:U8"/>
     <mergeCell ref="V5:V8"/>
     <mergeCell ref="AC5:AC8"/>
     <mergeCell ref="AD5:AD8"/>
@@ -52565,11 +52567,6 @@
     <mergeCell ref="R5:R8"/>
     <mergeCell ref="S5:S8"/>
     <mergeCell ref="T5:T8"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="U5:U8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -52582,8 +52579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:AF40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -55468,11 +55465,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="T5:T8"/>
-    <mergeCell ref="U5:U8"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="AE5:AE8"/>
-    <mergeCell ref="V5:V8"/>
     <mergeCell ref="P5:P8"/>
     <mergeCell ref="Q5:Q8"/>
     <mergeCell ref="R5:R8"/>
@@ -55482,6 +55474,11 @@
     <mergeCell ref="N5:N8"/>
     <mergeCell ref="J5:J8"/>
     <mergeCell ref="K5:K8"/>
+    <mergeCell ref="T5:T8"/>
+    <mergeCell ref="U5:U8"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="AE5:AE8"/>
+    <mergeCell ref="V5:V8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -56925,6 +56922,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K5:K8"/>
     <mergeCell ref="W5:W8"/>
     <mergeCell ref="AD5:AD8"/>
     <mergeCell ref="AE5:AE8"/>
@@ -56936,11 +56938,6 @@
     <mergeCell ref="V5:V8"/>
     <mergeCell ref="R5:R8"/>
     <mergeCell ref="U5:U8"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="K5:K8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -58314,11 +58311,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="J5:J8"/>
     <mergeCell ref="AB5:AB8"/>
     <mergeCell ref="AC5:AC8"/>
     <mergeCell ref="T5:T8"/>
@@ -58328,6 +58320,11 @@
     <mergeCell ref="U5:U8"/>
     <mergeCell ref="V5:V8"/>
     <mergeCell ref="S5:S8"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="J5:J8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
